--- a/identification.xlsx
+++ b/identification.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="5660" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,19 +27,154 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>vp</t>
-  </si>
-  <si>
-    <t>dh</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t>studyID</t>
+  </si>
+  <si>
+    <t>coder 1 psd count (vp)</t>
+  </si>
+  <si>
+    <t>wilson_standards_2015</t>
+  </si>
+  <si>
+    <t>rooney_management_2014</t>
+  </si>
+  <si>
+    <t>mills_an_assessment_2014</t>
+  </si>
+  <si>
+    <t>dawson_reducing_2014</t>
+  </si>
+  <si>
+    <t>dodd_an_audit_2013</t>
+  </si>
+  <si>
+    <t>nguyen_computer_2014</t>
+  </si>
+  <si>
+    <t>pichert_an-intervention_2013</t>
+  </si>
+  <si>
+    <t>wu_evaluation_2012</t>
+  </si>
+  <si>
+    <t>volpe_improving_2012</t>
+  </si>
+  <si>
+    <t>capraro_detecting_2012</t>
+  </si>
+  <si>
+    <t>welch_improving_2011</t>
+  </si>
+  <si>
+    <t>mcintosh_a-quality_2010</t>
+  </si>
+  <si>
+    <t>maneschi_cesarean_2016</t>
+  </si>
+  <si>
+    <t>blomberg_avoiding_2016</t>
+  </si>
+  <si>
+    <t>aguiar_implementation_2015</t>
+  </si>
+  <si>
+    <t>svelato_how_2014</t>
+  </si>
+  <si>
+    <t>scarella_medical_2010</t>
+  </si>
+  <si>
+    <t>kaminski_leadership_2015</t>
+  </si>
+  <si>
+    <t>keswani_physician_2015</t>
+  </si>
+  <si>
+    <t>fraser_colonoscopy_2013</t>
+  </si>
+  <si>
+    <t>kahi_impact_2013</t>
+  </si>
+  <si>
+    <t>coe_an-endoscopic_2013</t>
+  </si>
+  <si>
+    <t>lin_the-effect_2010</t>
+  </si>
+  <si>
+    <t>gude_effect_2016</t>
+  </si>
+  <si>
+    <t>peiris_effect_2015</t>
+  </si>
+  <si>
+    <t>guldberg_treatment_2011</t>
+  </si>
+  <si>
+    <t>carney_using_2011</t>
+  </si>
+  <si>
+    <t>linder_electronic_2010</t>
+  </si>
+  <si>
+    <t>Beck 2005</t>
+  </si>
+  <si>
+    <t>Bentz 2007</t>
+  </si>
+  <si>
+    <t>kritchevsky 2008</t>
+  </si>
+  <si>
+    <t>Ornstein 2004</t>
+  </si>
+  <si>
+    <t>Verstappen 2004</t>
+  </si>
+  <si>
+    <t>Wadland 2007</t>
+  </si>
+  <si>
+    <t>Pimlott 2003</t>
+  </si>
+  <si>
+    <t>Rantz 2001</t>
+  </si>
+  <si>
+    <t>Sondergaard 2002</t>
+  </si>
+  <si>
+    <t>Lobach 1996</t>
+  </si>
+  <si>
+    <t>Winickoff et al 1984</t>
+  </si>
+  <si>
+    <t>Balas 1998</t>
+  </si>
+  <si>
+    <t>Gehlbach 1984</t>
+  </si>
+  <si>
+    <t>Hershey 1988</t>
+  </si>
+  <si>
+    <t>Hershey 1986</t>
+  </si>
+  <si>
+    <t>Tierney 1986</t>
+  </si>
+  <si>
+    <t>coder 2 psd count (dh)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -50,6 +185,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -73,9 +213,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,379 +494,506 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>0</v>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>0</v>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>0</v>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>0</v>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>0</v>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>0</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>0</v>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>0</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>0</v>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>0</v>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>1</v>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>0</v>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>0</v>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>0</v>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>0</v>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>0</v>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>0</v>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>0</v>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
         <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1">
         <v>3</v>
       </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>12</v>
-      </c>
-      <c r="B31" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>2</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>1</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>2</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>1</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>1</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>1</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>1</v>
-      </c>
-      <c r="B45" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>3</v>
-      </c>
-      <c r="B46" s="1">
+      <c r="C45" s="1">
         <v>3</v>
       </c>
     </row>
